--- a/place_stat_crawler/data/processed/GOODMORNINGHANIGURO_2024_09_booking_daily_summary.xlsx
+++ b/place_stat_crawler/data/processed/GOODMORNINGHANIGURO_2024_09_booking_daily_summary.xlsx
@@ -528,7 +528,7 @@
         </is>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -566,7 +566,7 @@
         </is>
       </c>
       <c r="F3" t="n">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="G3" t="n">
         <v>3</v>
@@ -608,7 +608,7 @@
         </is>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -648,7 +648,7 @@
         </is>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G5" t="n">
         <v>2</v>
@@ -688,7 +688,7 @@
         </is>
       </c>
       <c r="F6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G6" t="n">
         <v>0</v>
@@ -726,7 +726,7 @@
         </is>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G7" t="n">
         <v>2</v>
@@ -762,7 +762,7 @@
         </is>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G8" t="n">
         <v>2</v>
@@ -804,7 +804,7 @@
         </is>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -840,7 +840,7 @@
         </is>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G10" t="n">
         <v>2</v>
@@ -878,7 +878,7 @@
         </is>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G11" t="n">
         <v>2</v>
@@ -916,7 +916,7 @@
         </is>
       </c>
       <c r="F12" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G12" t="n">
         <v>2</v>
@@ -954,7 +954,7 @@
         </is>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -994,7 +994,7 @@
         </is>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -1030,7 +1030,7 @@
         </is>
       </c>
       <c r="F15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G15" t="n">
         <v>1</v>
@@ -1068,7 +1068,7 @@
         </is>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G16" t="n">
         <v>1</v>
@@ -1104,7 +1104,7 @@
         </is>
       </c>
       <c r="F17" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
         <v>1</v>
@@ -1140,7 +1140,7 @@
         </is>
       </c>
       <c r="F18" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G18" t="n">
         <v>0</v>
@@ -1176,7 +1176,7 @@
         </is>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -1212,7 +1212,7 @@
         </is>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G20" t="n">
         <v>2</v>
@@ -1254,7 +1254,7 @@
         </is>
       </c>
       <c r="F21" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G21" t="n">
         <v>0</v>
@@ -1292,7 +1292,7 @@
         </is>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         </is>
       </c>
       <c r="F23" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G23" t="n">
         <v>0</v>
@@ -1368,7 +1368,7 @@
         </is>
       </c>
       <c r="F24" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="G24" t="n">
         <v>2</v>
@@ -1412,7 +1412,7 @@
         </is>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
@@ -1454,7 +1454,7 @@
         </is>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G26" t="n">
         <v>2</v>
@@ -1490,7 +1490,7 @@
         </is>
       </c>
       <c r="F27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G27" t="n">
         <v>1</v>
@@ -1526,7 +1526,7 @@
         </is>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
@@ -1562,7 +1562,7 @@
         </is>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -1598,7 +1598,7 @@
         </is>
       </c>
       <c r="F30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G30" t="n">
         <v>1</v>
@@ -1636,7 +1636,7 @@
         </is>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="G31" t="n">
         <v>2</v>
@@ -1704,7 +1704,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>72</t>
         </is>
       </c>
       <c r="C4" t="inlineStr"/>
@@ -1732,7 +1732,7 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.0</t>
+          <t>2.4</t>
         </is>
       </c>
       <c r="C6" t="inlineStr"/>
@@ -1793,66 +1793,66 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2024-09-01</t>
+          <t>2024-09-02</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>6</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2024-09-02</t>
+          <t>2024-09-19</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2024-09-03</t>
+          <t>2024-09-23</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>5</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -1869,7 +1869,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1881,105 +1881,105 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2024-09-05</t>
+          <t>2024-09-07</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>Thursday</t>
+          <t>Saturday</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>4</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2024-09-06</t>
+          <t>2024-09-24</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>Friday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2024-09-07</t>
+          <t>2024-09-03</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>Saturday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2024-09-08</t>
+          <t>2024-09-09</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>Sunday</t>
+          <t>Monday</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>2</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2024-09-09</t>
+          <t>2024-09-10</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>Monday</t>
+          <t>Tuesday</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>3</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1991,22 +1991,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2024-09-10</t>
+          <t>2024-09-12</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>Tuesday</t>
+          <t>Thursday</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>0</t>
-        </is>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>2</t>
         </is>
       </c>
     </row>
